--- a/API/数据库修改.xlsx
+++ b/API/数据库修改.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>数据库设计</t>
   </si>
@@ -121,6 +121,88 @@
   </si>
   <si>
     <t>报名链接</t>
+  </si>
+  <si>
+    <t>vs_user
+(用户信息)</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>groupid</t>
+  </si>
+  <si>
+    <t>用户角色(0学生1教师2投资人)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>性别(0男1女)</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>用户token</t>
+  </si>
+  <si>
+    <t>reg_time</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>log_time</t>
+  </si>
+  <si>
+    <t>最后登录时间</t>
   </si>
 </sst>
 </file>
@@ -287,7 +369,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -322,6 +404,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1461,7 +1546,7 @@
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7266" style="1" customWidth="1"/>
     <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1669,153 +1754,289 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
+    <row r="10" ht="22.35" customHeight="1">
+      <c r="A10" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>13</v>
+      </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="H10" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="22.35" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>20</v>
+      </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="J11" t="s" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="22.35" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11">
+        <v>32</v>
+      </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="J12" t="s" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="22.35" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="F13" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="J13" t="s" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="22.35" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11">
+        <v>10</v>
+      </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
+      <c r="J14" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="22.35" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="E15" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
+      <c r="J15" t="s" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="22.35" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="E16" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="J16" t="s" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="22.35" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="D17" s="11">
+        <v>11</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="J17" t="s" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="22.35" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11">
+        <v>30</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="J18" t="s" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="22.35" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11">
+        <v>32</v>
+      </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="F19" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="H19" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
+      <c r="J19" t="s" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" ht="22.35" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="E20" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
+      <c r="J20" t="s" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" ht="22.35" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="E21" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="J21" t="s" s="10">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1826,8 +2047,9 @@
       <c r="J22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A10:A21"/>
     <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/API/数据库修改.xlsx
+++ b/API/数据库修改.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>数据库设计</t>
   </si>
@@ -203,6 +203,62 @@
   </si>
   <si>
     <t>最后登录时间</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>标签编号，形如1-3-6-9</t>
+  </si>
+  <si>
+    <t>vs_student
+(学生信息)</t>
+  </si>
+  <si>
+    <t>用户编号(可做外键)</t>
+  </si>
+  <si>
+    <t>stu_id</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>入学年份</t>
+  </si>
+  <si>
+    <t>vs_tag
+(标签库，可选择用Model类实现)</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>标签编号</t>
+  </si>
+  <si>
+    <t>标签名称</t>
   </si>
 </sst>
 </file>
@@ -212,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -224,13 +280,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +310,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -262,6 +329,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -275,7 +364,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -284,7 +373,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -293,43 +382,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -338,28 +412,58 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -369,50 +473,62 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,8 +548,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -452,10 +570,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -649,14 +767,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -671,35 +790,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -952,14 +1065,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1248,7 +1367,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1529,15 +1648,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J22"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.7656" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
@@ -1546,7 +1663,7 @@
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7266" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6719" style="1" customWidth="1"/>
     <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1554,503 +1671,747 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" t="s" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" t="s" s="6">
+      <c r="D3" s="9"/>
+      <c r="E3" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" t="s" s="6">
+      <c r="G3" s="8"/>
+      <c r="H3" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="I3" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="J3" t="s" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="9">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>20</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" t="s" s="10">
+      <c r="E4" s="13"/>
+      <c r="F4" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" t="s" s="10">
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" t="s" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s" s="9">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" t="s" s="10">
+      <c r="D5" s="13"/>
+      <c r="E5" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" t="s" s="10">
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" t="s" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s" s="9">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" t="s" s="10">
+      <c r="D6" s="13"/>
+      <c r="E6" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" t="s" s="10">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" t="s" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" t="s" s="9">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" t="s" s="10">
+      <c r="D7" s="13"/>
+      <c r="E7" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" t="s" s="10">
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" t="s" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s" s="9">
+      <c r="A8" s="10"/>
+      <c r="B8" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" t="s" s="10">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" t="s" s="10">
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" t="s" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" t="s" s="9">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D9" t="s" s="10">
+      <c r="D9" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" t="s" s="10">
+      <c r="E9" s="13"/>
+      <c r="F9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" t="s" s="10">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" t="s" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" t="s" s="11">
         <v>37</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" t="s" s="10">
+      <c r="D10" s="13"/>
+      <c r="E10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F10" t="s" s="10">
+      <c r="F10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" t="s" s="10">
+      <c r="G10" s="13"/>
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="10">
+      <c r="I10" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="J10" t="s" s="10">
+      <c r="J10" t="s" s="12">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" t="s" s="9">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="C11" t="s" s="10">
+      <c r="C11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>20</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" t="s" s="10">
+      <c r="E11" s="13"/>
+      <c r="F11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" t="s" s="10">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" t="s" s="12">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s" s="9">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="C12" t="s" s="10">
+      <c r="C12" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>32</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" t="s" s="10">
+      <c r="E12" s="13"/>
+      <c r="F12" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" t="s" s="10">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" t="s" s="12">
         <v>43</v>
       </c>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s" s="9">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>10</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" t="s" s="10">
+      <c r="E13" s="13"/>
+      <c r="F13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" t="s" s="10">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" t="s" s="12">
         <v>45</v>
       </c>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s" s="9">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" t="s" s="10">
+      <c r="E14" s="13"/>
+      <c r="F14" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" t="s" s="10">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" t="s" s="12">
         <v>46</v>
       </c>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" t="s" s="9">
+      <c r="A15" s="15"/>
+      <c r="B15" t="s" s="11">
         <v>47</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" t="s" s="10">
+      <c r="D15" s="13"/>
+      <c r="E15" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F15" t="s" s="10">
+      <c r="F15" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" t="s" s="10">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" t="s" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" t="s" s="9">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="10">
+      <c r="C16" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" t="s" s="10">
+      <c r="D16" s="13"/>
+      <c r="E16" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F16" t="s" s="10">
+      <c r="F16" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="13">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" t="s" s="10">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" t="s" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" t="s" s="9">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>11</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" t="s" s="10">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="H17" t="s" s="10">
+      <c r="H17" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" t="s" s="10">
+      <c r="I17" s="13"/>
+      <c r="J17" t="s" s="12">
         <v>54</v>
       </c>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" t="s" s="9">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="C18" t="s" s="10">
+      <c r="C18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>30</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" t="s" s="10">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="H18" t="s" s="10">
+      <c r="H18" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" t="s" s="10">
+      <c r="I18" s="13"/>
+      <c r="J18" t="s" s="12">
         <v>56</v>
       </c>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s" s="9">
+      <c r="A19" s="15"/>
+      <c r="B19" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>32</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" t="s" s="10">
+      <c r="E19" s="13"/>
+      <c r="F19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" t="s" s="10">
+      <c r="G19" s="13"/>
+      <c r="H19" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" t="s" s="10">
+      <c r="I19" s="13"/>
+      <c r="J19" t="s" s="12">
         <v>58</v>
       </c>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s" s="9">
+      <c r="A20" s="15"/>
+      <c r="B20" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="C20" t="s" s="10">
+      <c r="C20" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" t="s" s="10">
+      <c r="D20" s="13"/>
+      <c r="E20" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F20" t="s" s="10">
+      <c r="F20" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" t="s" s="10">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" t="s" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" t="s" s="9">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="C21" t="s" s="10">
+      <c r="C21" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" t="s" s="10">
+      <c r="D21" s="13"/>
+      <c r="E21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F21" t="s" s="10">
+      <c r="F21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" t="s" s="10">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" t="s" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D22" s="13">
+        <v>100</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" t="s" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" t="s" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" t="s" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D25" s="13">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" t="s" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" t="s" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" t="s" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13">
+        <v>4</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" t="s" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" t="s" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/API/数据库修改.xlsx
+++ b/API/数据库修改.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>数据库设计</t>
   </si>
@@ -259,6 +259,40 @@
   </si>
   <si>
     <t>标签名称</t>
+  </si>
+  <si>
+    <t>vs_message
+(消息)</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>消息id</t>
+  </si>
+  <si>
+    <t>from_uid</t>
+  </si>
+  <si>
+    <t>发送者用户编号(可做外键)</t>
+  </si>
+  <si>
+    <t>to_uid</t>
+  </si>
+  <si>
+    <t>接受者用户编号(可做外键)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>发送时间戳</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>消息内容</t>
   </si>
 </sst>
 </file>
@@ -473,7 +507,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -523,12 +557,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1648,7 +1676,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2358,60 +2386,141 @@
       </c>
     </row>
     <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="16"/>
+      <c r="A31" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>13</v>
+      </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="12"/>
+      <c r="E31" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
+      <c r="H31" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s" s="12">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="15"/>
+      <c r="B32" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s" s="12">
+        <v>13</v>
+      </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="12"/>
+      <c r="E32" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
+      <c r="J32" t="s" s="12">
+        <v>85</v>
+      </c>
     </row>
     <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="15"/>
+      <c r="B33" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s" s="12">
+        <v>13</v>
+      </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="12"/>
+      <c r="E33" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
+      <c r="J33" t="s" s="12">
+        <v>87</v>
+      </c>
     </row>
     <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="15"/>
+      <c r="B34" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s" s="12">
+        <v>26</v>
+      </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="12"/>
+      <c r="E34" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="12"/>
+      <c r="J34" t="s" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D35" s="13">
+        <v>200</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" t="s" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" ht="20.35" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A31:A35"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/API/数据库修改.xlsx
+++ b/API/数据库修改.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>数据库设计</t>
   </si>
@@ -203,62 +203,6 @@
   </si>
   <si>
     <t>最后登录时间</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>标签编号，形如1-3-6-9</t>
-  </si>
-  <si>
-    <t>vs_student
-(学生信息)</t>
-  </si>
-  <si>
-    <t>用户编号(可做外键)</t>
-  </si>
-  <si>
-    <t>stu_id</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>学院</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>start_year</t>
-  </si>
-  <si>
-    <t>入学年份</t>
-  </si>
-  <si>
-    <t>vs_tag
-(标签库，可选择用Model类实现)</t>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>标签编号</t>
-  </si>
-  <si>
-    <t>标签名称</t>
   </si>
 </sst>
 </file>
@@ -268,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -280,18 +224,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,14 +249,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -329,28 +262,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -364,7 +275,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -373,7 +284,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -382,28 +293,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,58 +338,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,62 +369,50 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,10 +432,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -570,10 +452,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -767,15 +649,14 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -790,29 +671,35 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1065,20 +952,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1367,7 +1248,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1648,13 +1529,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7656" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
@@ -1663,7 +1546,7 @@
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6719" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7266" style="1" customWidth="1"/>
     <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1671,747 +1554,503 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" t="s" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" t="s" s="8">
+      <c r="D3" s="7"/>
+      <c r="E3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" t="s" s="8">
+      <c r="G3" s="6"/>
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="8">
+      <c r="J3" t="s" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s" s="11">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>20</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" t="s" s="12">
+      <c r="E4" s="11"/>
+      <c r="F4" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" t="s" s="12">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" t="s" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s" s="11">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" t="s" s="12">
+      <c r="D5" s="11"/>
+      <c r="E5" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" t="s" s="12">
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" t="s" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s" s="11">
+      <c r="A6" s="8"/>
+      <c r="B6" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" t="s" s="12">
+      <c r="D6" s="11"/>
+      <c r="E6" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="F6" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" t="s" s="12">
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" t="s" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s" s="11">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" t="s" s="12">
+      <c r="D7" s="11"/>
+      <c r="E7" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F7" t="s" s="12">
+      <c r="F7" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" t="s" s="12">
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" t="s" s="10">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" t="s" s="11">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" t="s" s="12">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" t="s" s="12">
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" t="s" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="11">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D9" t="s" s="12">
+      <c r="D9" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" t="s" s="12">
+      <c r="E9" s="11"/>
+      <c r="F9" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" t="s" s="12">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" t="s" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="14">
+      <c r="A10" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="C10" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" t="s" s="12">
+      <c r="D10" s="11"/>
+      <c r="E10" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F10" t="s" s="12">
+      <c r="F10" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" t="s" s="12">
+      <c r="G10" s="11"/>
+      <c r="H10" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="12">
+      <c r="I10" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J10" t="s" s="12">
+      <c r="J10" t="s" s="10">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" t="s" s="11">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" t="s" s="12">
+      <c r="E11" s="11"/>
+      <c r="F11" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" t="s" s="12">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" t="s" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" t="s" s="11">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>32</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" t="s" s="12">
+      <c r="E12" s="11"/>
+      <c r="F12" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" t="s" s="12">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" t="s" s="10">
         <v>43</v>
       </c>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" t="s" s="11">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>10</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" t="s" s="12">
+      <c r="E13" s="11"/>
+      <c r="F13" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" t="s" s="12">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" t="s" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" t="s" s="11">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>10</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" t="s" s="12">
+      <c r="E14" s="11"/>
+      <c r="F14" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" t="s" s="12">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" t="s" s="10">
         <v>46</v>
       </c>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" t="s" s="11">
+      <c r="A15" s="8"/>
+      <c r="B15" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" t="s" s="12">
+      <c r="D15" s="11"/>
+      <c r="E15" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" t="s" s="12">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" t="s" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" t="s" s="11">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" t="s" s="12">
+      <c r="D16" s="11"/>
+      <c r="E16" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F16" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" t="s" s="12">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" t="s" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" t="s" s="11">
+      <c r="A17" s="8"/>
+      <c r="B17" t="s" s="9">
         <v>51</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>11</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" t="s" s="12">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" t="s" s="12">
+      <c r="I17" s="11"/>
+      <c r="J17" t="s" s="10">
         <v>54</v>
       </c>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" t="s" s="11">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>30</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" t="s" s="12">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" t="s" s="12">
+      <c r="I18" s="11"/>
+      <c r="J18" t="s" s="10">
         <v>56</v>
       </c>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" t="s" s="11">
+      <c r="A19" s="8"/>
+      <c r="B19" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>32</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" t="s" s="12">
+      <c r="E19" s="11"/>
+      <c r="F19" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" t="s" s="12">
+      <c r="G19" s="11"/>
+      <c r="H19" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" t="s" s="12">
+      <c r="I19" s="11"/>
+      <c r="J19" t="s" s="10">
         <v>58</v>
       </c>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" t="s" s="11">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" t="s" s="12">
+      <c r="D20" s="11"/>
+      <c r="E20" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" t="s" s="12">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" t="s" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" t="s" s="11">
+      <c r="A21" s="8"/>
+      <c r="B21" t="s" s="9">
         <v>61</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" t="s" s="12">
+      <c r="D21" s="11"/>
+      <c r="E21" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" t="s" s="12">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" t="s" s="10">
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="D22" s="13">
-        <v>100</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" t="s" s="12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="14">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" t="s" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" t="s" s="11">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" t="s" s="12">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="D25" s="13">
-        <v>20</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" t="s" s="12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="D26" s="13">
-        <v>20</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" t="s" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13">
-        <v>20</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" t="s" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D28" s="13">
-        <v>4</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" t="s" s="12">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" t="s" s="14">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s" s="11">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="J29" t="s" s="12">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="D30" s="13">
-        <v>10</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="12"/>
+    <row r="22" ht="20.35" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A23:A28"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A10:A21"/>
     <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/API/数据库修改.xlsx
+++ b/API/数据库修改.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>数据库设计</t>
   </si>
@@ -203,6 +203,96 @@
   </si>
   <si>
     <t>最后登录时间</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>标签编号，形如1-3-6-9</t>
+  </si>
+  <si>
+    <t>vs_student
+(学生信息)</t>
+  </si>
+  <si>
+    <t>用户编号(可做外键)</t>
+  </si>
+  <si>
+    <t>stu_id</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>入学年份</t>
+  </si>
+  <si>
+    <t>vs_tag
+(标签库，可选择用Model类实现)</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>标签编号</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>vs_message
+(消息)</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>消息id</t>
+  </si>
+  <si>
+    <t>from_uid</t>
+  </si>
+  <si>
+    <t>发送者用户编号(可做外键)</t>
+  </si>
+  <si>
+    <t>to_uid</t>
+  </si>
+  <si>
+    <t>接受者用户编号(可做外键)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>发送时间戳</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>消息内容</t>
   </si>
 </sst>
 </file>
@@ -212,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -224,13 +314,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +344,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -262,6 +363,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -275,7 +398,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -284,7 +407,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -293,43 +416,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -338,28 +446,58 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -369,50 +507,56 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,8 +576,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -452,10 +598,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -649,14 +795,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -671,35 +818,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -952,14 +1093,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1248,7 +1395,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1529,15 +1676,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J22"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.7656" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
@@ -1546,7 +1691,7 @@
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7266" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6719" style="1" customWidth="1"/>
     <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1554,502 +1699,827 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" t="s" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" t="s" s="6">
+      <c r="D3" s="9"/>
+      <c r="E3" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" t="s" s="6">
+      <c r="F3" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="I3" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="J3" t="s" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="9">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>20</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" t="s" s="10">
+      <c r="E4" s="13"/>
+      <c r="F4" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" t="s" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s" s="9">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" t="s" s="10">
+      <c r="D5" s="13"/>
+      <c r="E5" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F5" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" t="s" s="10">
+      <c r="F5" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" t="s" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s" s="9">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" t="s" s="10">
+      <c r="D6" s="13"/>
+      <c r="E6" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F6" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" t="s" s="10">
+      <c r="F6" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" t="s" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" t="s" s="9">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" t="s" s="10">
+      <c r="D7" s="13"/>
+      <c r="E7" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F7" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" t="s" s="10">
+      <c r="F7" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" t="s" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s" s="9">
+      <c r="A8" s="10"/>
+      <c r="B8" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" t="s" s="10">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" t="s" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" t="s" s="9">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D9" t="s" s="10">
+      <c r="D9" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" t="s" s="10">
+      <c r="E9" s="13"/>
+      <c r="F9" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" t="s" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" t="s" s="11">
         <v>37</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" t="s" s="10">
+      <c r="D10" s="13"/>
+      <c r="E10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F10" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" t="s" s="10">
+      <c r="F10" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="10">
+      <c r="I10" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="J10" t="s" s="10">
+      <c r="J10" t="s" s="12">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" t="s" s="9">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="C11" t="s" s="10">
+      <c r="C11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>20</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" t="s" s="10">
+      <c r="E11" s="13"/>
+      <c r="F11" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" t="s" s="12">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s" s="9">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="C12" t="s" s="10">
+      <c r="C12" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>32</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" t="s" s="10">
+      <c r="E12" s="13"/>
+      <c r="F12" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" t="s" s="12">
         <v>43</v>
       </c>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s" s="9">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>10</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" t="s" s="10">
+      <c r="E13" s="13"/>
+      <c r="F13" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" t="s" s="12">
         <v>45</v>
       </c>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s" s="9">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" t="s" s="10">
+      <c r="E14" s="13"/>
+      <c r="F14" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" t="s" s="12">
         <v>46</v>
       </c>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" t="s" s="9">
+      <c r="A15" s="15"/>
+      <c r="B15" t="s" s="11">
         <v>47</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" t="s" s="10">
+      <c r="D15" s="13"/>
+      <c r="E15" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F15" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" t="s" s="10">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" t="s" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" t="s" s="9">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="10">
+      <c r="C16" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" t="s" s="10">
+      <c r="D16" s="13"/>
+      <c r="E16" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F16" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G16" s="13">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" t="s" s="10">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" t="s" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" t="s" s="9">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>11</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" t="s" s="10">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="H17" t="s" s="10">
+      <c r="H17" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" t="s" s="10">
+      <c r="I17" s="13"/>
+      <c r="J17" t="s" s="12">
         <v>54</v>
       </c>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" t="s" s="9">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="C18" t="s" s="10">
+      <c r="C18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>30</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" t="s" s="10">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="H18" t="s" s="10">
+      <c r="H18" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" t="s" s="10">
+      <c r="I18" s="13"/>
+      <c r="J18" t="s" s="12">
         <v>56</v>
       </c>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s" s="9">
+      <c r="A19" s="15"/>
+      <c r="B19" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>32</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" t="s" s="10">
+      <c r="E19" s="13"/>
+      <c r="F19" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" t="s" s="10">
+      <c r="I19" s="13"/>
+      <c r="J19" t="s" s="12">
         <v>58</v>
       </c>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s" s="9">
+      <c r="A20" s="15"/>
+      <c r="B20" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="C20" t="s" s="10">
+      <c r="C20" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" t="s" s="10">
+      <c r="D20" s="13"/>
+      <c r="E20" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F20" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" t="s" s="10">
+      <c r="F20" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" t="s" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" t="s" s="9">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="C21" t="s" s="10">
+      <c r="C21" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" t="s" s="10">
+      <c r="D21" s="13"/>
+      <c r="E21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F21" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" t="s" s="10">
+      <c r="F21" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" t="s" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D22" s="13">
+        <v>100</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" t="s" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" t="s" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" t="s" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D25" s="13">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" t="s" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" t="s" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" t="s" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13">
+        <v>4</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" t="s" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" t="s" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" t="s" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" t="s" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" t="s" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D35" s="13">
+        <v>200</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" t="s" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" ht="20.35" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/API/数据库修改.xlsx
+++ b/API/数据库修改.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 数据库设计" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - 数据库设计" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>数据库设计</t>
   </si>
@@ -298,11 +305,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -314,14 +318,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -503,92 +506,144 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -714,7 +769,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -723,7 +778,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -732,7 +787,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -806,7 +861,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -814,7 +869,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -833,7 +888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +918,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,9 +1139,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1101,7 +1162,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1109,7 +1170,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1128,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,9 +1436,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1391,7 +1458,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1410,7 +1477,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +1507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,7 +1533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1518,7 +1585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1544,7 +1611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1570,7 +1637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1596,7 +1663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1622,7 +1689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,7 +1715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,857 +1728,859 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6719" style="1" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="31" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" t="s" s="8">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" t="s" s="8">
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="8">
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s" s="11">
+    <row r="4" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>20</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" t="s" s="12">
+      <c r="E4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s" s="11">
+    <row r="5" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" t="s" s="12">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" t="s" s="12">
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s" s="11">
+    <row r="6" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" t="s" s="12">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" t="s" s="12">
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s" s="11">
+    <row r="7" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" t="s" s="12">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" t="s" s="12">
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" t="s" s="11">
+    <row r="8" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" t="s" s="12">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="11">
+    <row r="9" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s" s="12">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" t="s" s="12">
+      <c r="E9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="14">
+    <row r="10" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" t="s" s="12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" t="s" s="12">
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="12">
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s" s="12">
+      <c r="J10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" t="s" s="11">
+    <row r="11" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <v>20</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" t="s" s="12">
+      <c r="E11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" t="s" s="11">
+    <row r="12" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="8">
         <v>32</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" t="s" s="12">
+      <c r="E12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" t="s" s="11">
+    <row r="13" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>10</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" t="s" s="12">
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" t="s" s="11">
+    <row r="14" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="8">
         <v>10</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" t="s" s="12">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" t="s" s="11">
+    <row r="15" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" t="s" s="12">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" t="s" s="12">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" t="s" s="11">
+    <row r="16" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" t="s" s="12">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" t="s" s="12">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" t="s" s="11">
+    <row r="17" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <v>11</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" t="s" s="12">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" t="s" s="12">
+      <c r="I17" s="8"/>
+      <c r="J17" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" t="s" s="11">
+    <row r="18" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <v>30</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" t="s" s="12">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" t="s" s="12">
+      <c r="I18" s="8"/>
+      <c r="J18" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" t="s" s="11">
+    <row r="19" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <v>32</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" t="s" s="12">
+      <c r="E19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" t="s" s="12">
+      <c r="I19" s="8"/>
+      <c r="J19" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" t="s" s="11">
+    <row r="20" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" t="s" s="12">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" t="s" s="12">
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" t="s" s="11">
+    <row r="21" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" t="s" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" t="s" s="12">
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" t="s" s="11">
+    <row r="22" spans="1:10" ht="22.25" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="8">
         <v>100</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" t="s" s="12">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" t="s" s="12">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="14">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s" s="11">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" t="s" s="12">
+      <c r="D23" s="8"/>
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" t="s" s="12">
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" t="s" s="11">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" t="s" s="12">
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" t="s" s="12">
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" t="s" s="11">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s" s="12">
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="8">
         <v>20</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" t="s" s="12">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" t="s" s="11">
+    <row r="26" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="8">
         <v>20</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" t="s" s="12">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" t="s" s="11">
+    <row r="27" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="8">
         <v>20</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" t="s" s="12">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" t="s" s="11">
+    <row r="28" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="8">
         <v>4</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" t="s" s="12">
+      <c r="E28" s="10"/>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" t="s" s="14">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B29" t="s" s="11">
+      <c r="B29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" t="s" s="12">
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F29" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" t="s" s="12">
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I29" t="s" s="12">
+      <c r="I29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J29" t="s" s="12">
+      <c r="J29" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" t="s" s="11">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="8">
         <v>10</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" t="s" s="12">
+      <c r="E30" s="10"/>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" t="s" s="14">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s" s="11">
+      <c r="B31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" t="s" s="12">
+      <c r="D31" s="8"/>
+      <c r="E31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F31" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" t="s" s="12">
+      <c r="F31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J31" t="s" s="12">
+      <c r="J31" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" t="s" s="11">
+    <row r="32" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" t="s" s="12">
+      <c r="D32" s="8"/>
+      <c r="E32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" t="s" s="12">
+      <c r="F32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" t="s" s="11">
+    <row r="33" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" t="s" s="12">
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" t="s" s="12">
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" t="s" s="11">
+    <row r="34" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" t="s" s="12">
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F34" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" t="s" s="12">
+      <c r="F34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" t="s" s="11">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="8">
         <v>200</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" t="s" s="12">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="12"/>
+    <row r="36" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2522,10 +2591,16 @@
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A3:A9"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>